--- a/Backups/econ/2021p&l.xlsx
+++ b/Backups/econ/2021p&l.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\cml_code\backend\Backups\econ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF77ACF6-3430-497E-AFAE-8D7475C3F1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1046EB-6090-41F1-893E-869981B6F912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="3240" windowWidth="21600" windowHeight="11295" xr2:uid="{A2FBE7EC-41B9-4585-B3A5-1DB93F3A6C5D}"/>
+    <workbookView xWindow="2895" yWindow="795" windowWidth="25500" windowHeight="13605" xr2:uid="{A2FBE7EC-41B9-4585-B3A5-1DB93F3A6C5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="158">
   <si>
     <t>Well List:</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Area</t>
   </si>
   <si>
-    <t>YTD Gain/Loss</t>
-  </si>
-  <si>
     <t>Barrier #1</t>
   </si>
   <si>
@@ -363,6 +360,156 @@
   </si>
   <si>
     <t>White Marlin #1</t>
+  </si>
+  <si>
+    <t>Whittington #1</t>
+  </si>
+  <si>
+    <t>Cannan #1</t>
+  </si>
+  <si>
+    <t>PALMERAS RANCH PROSPECT</t>
+  </si>
+  <si>
+    <t>Dial #1</t>
+  </si>
+  <si>
+    <t>Dunkle #2</t>
+  </si>
+  <si>
+    <t>Haby #1</t>
+  </si>
+  <si>
+    <t>Leary Trust #1</t>
+  </si>
+  <si>
+    <t>McLean #1</t>
+  </si>
+  <si>
+    <t>Pecan Grove #1</t>
+  </si>
+  <si>
+    <t>Pritchett #1</t>
+  </si>
+  <si>
+    <t>Rio Nueces #1</t>
+  </si>
+  <si>
+    <t>EXPIRED</t>
+  </si>
+  <si>
+    <t>Thompson #1</t>
+  </si>
+  <si>
+    <t>Thompson #2</t>
+  </si>
+  <si>
+    <t>Tlapek #1</t>
+  </si>
+  <si>
+    <t>Triple J #2</t>
+  </si>
+  <si>
+    <t>Huber #1</t>
+  </si>
+  <si>
+    <t>Joe #1</t>
+  </si>
+  <si>
+    <t>Marguerite #1</t>
+  </si>
+  <si>
+    <t>TORTUGA PROSPECT</t>
+  </si>
+  <si>
+    <t>Marpick #1</t>
+  </si>
+  <si>
+    <t>Pickens Ranch #2H</t>
+  </si>
+  <si>
+    <t>Montemayor #1</t>
+  </si>
+  <si>
+    <t>WEST BRUNDAGE PROSPECT</t>
+  </si>
+  <si>
+    <t>Branton #1</t>
+  </si>
+  <si>
+    <t>MDB #1</t>
+  </si>
+  <si>
+    <t>Thuss #1</t>
+  </si>
+  <si>
+    <t>CR #201</t>
+  </si>
+  <si>
+    <t>CR #301</t>
+  </si>
+  <si>
+    <t>CR #501</t>
+  </si>
+  <si>
+    <t>CR #302</t>
+  </si>
+  <si>
+    <t>FMMP #1</t>
+  </si>
+  <si>
+    <t>DMZ BLOCK B</t>
+  </si>
+  <si>
+    <t>BMMP #1</t>
+  </si>
+  <si>
+    <t>VRE Minerals #1</t>
+  </si>
+  <si>
+    <t>Lochte #1</t>
+  </si>
+  <si>
+    <t>CR #101</t>
+  </si>
+  <si>
+    <t>CR #401</t>
+  </si>
+  <si>
+    <t>BMMP #3</t>
+  </si>
+  <si>
+    <t>RAB #1</t>
+  </si>
+  <si>
+    <t>JIC #1</t>
+  </si>
+  <si>
+    <t>DIXONDALE</t>
+  </si>
+  <si>
+    <t>Little 179</t>
+  </si>
+  <si>
+    <t>Balfour #1</t>
+  </si>
+  <si>
+    <t>Drinkard #1</t>
+  </si>
+  <si>
+    <t>Fatheree #1</t>
+  </si>
+  <si>
+    <t>Marrs #1</t>
+  </si>
+  <si>
+    <t>RAB #2</t>
+  </si>
+  <si>
+    <t>RAB #3</t>
+  </si>
+  <si>
+    <t>Pena Creek #1</t>
   </si>
 </sst>
 </file>
@@ -385,15 +532,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDD9C4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -416,11 +569,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -428,6 +594,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -742,15 +915,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1F1C5C-3247-4C48-9C81-6F76186689CC}">
-  <dimension ref="A1:T80"/>
+  <dimension ref="A1:S124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -806,16 +979,13 @@
       <c r="S1" s="2">
         <v>44561</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3">
         <v>6725.0010000000002</v>
@@ -824,13 +994,13 @@
         <v>0.74759624000000002</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="4">
         <v>26448.68</v>
@@ -868,16 +1038,13 @@
       <c r="S2" s="4">
         <v>31691.06</v>
       </c>
-      <c r="T2" s="4">
-        <v>200331.36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3">
         <v>6725.0020000000004</v>
@@ -886,13 +1053,13 @@
         <v>0.74764980000000003</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="4">
         <v>10594.06</v>
@@ -930,16 +1097,13 @@
       <c r="S3" s="4">
         <v>12179.1</v>
       </c>
-      <c r="T3" s="4">
-        <v>141393.67000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3">
         <v>8650.009</v>
@@ -948,13 +1112,13 @@
         <v>0.75</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="4">
         <v>4077.16</v>
@@ -992,16 +1156,13 @@
       <c r="S4" s="4">
         <v>-1803.69</v>
       </c>
-      <c r="T4" s="4">
-        <v>-2872.06</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3">
         <v>8650.0010000000002</v>
@@ -1010,13 +1171,13 @@
         <v>0.75</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="4">
         <v>-2753.21</v>
@@ -1054,16 +1215,13 @@
       <c r="S5" s="4">
         <v>6795.91</v>
       </c>
-      <c r="T5" s="4">
-        <v>-27451.439999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3">
         <v>8650.0079999999998</v>
@@ -1072,13 +1230,13 @@
         <v>0.75</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="4">
         <v>7067.84</v>
@@ -1116,16 +1274,13 @@
       <c r="S6" s="4">
         <v>41833.22</v>
       </c>
-      <c r="T6" s="4">
-        <v>103369</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3">
         <v>8650.0069999999996</v>
@@ -1134,13 +1289,13 @@
         <v>0.75</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" s="4">
         <v>2157.08</v>
@@ -1178,16 +1333,13 @@
       <c r="S7" s="4">
         <v>3402.57</v>
       </c>
-      <c r="T7" s="4">
-        <v>22656.53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3">
         <v>8650.0040000000008</v>
@@ -1196,13 +1348,13 @@
         <v>0.75</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H8" s="4">
         <v>2671.45</v>
@@ -1240,16 +1392,13 @@
       <c r="S8" s="4">
         <v>5585.09</v>
       </c>
-      <c r="T8" s="4">
-        <v>37348.620000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3">
         <v>8650.0059999999994</v>
@@ -1258,13 +1407,13 @@
         <v>0.75</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" s="4">
         <v>52227.45</v>
@@ -1302,16 +1451,13 @@
       <c r="S9" s="4">
         <v>18770.88</v>
       </c>
-      <c r="T9" s="4">
-        <v>417687.01</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3">
         <v>8650.0049999999992</v>
@@ -1320,13 +1466,13 @@
         <v>0.75</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H10" s="1">
         <v>-179.9</v>
@@ -1364,16 +1510,13 @@
       <c r="S10" s="4">
         <v>4121.28</v>
       </c>
-      <c r="T10" s="4">
-        <v>18478.18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3">
         <v>9750.0020000000004</v>
@@ -1382,13 +1525,13 @@
         <v>0.75345266</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11" s="4">
         <v>-3816.86</v>
@@ -1426,16 +1569,13 @@
       <c r="S11" s="4">
         <v>4223.8900000000003</v>
       </c>
-      <c r="T11" s="4">
-        <v>-13603.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="3">
         <v>9750.0010000000002</v>
@@ -1444,13 +1584,13 @@
         <v>0.75</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12" s="4">
         <v>3611.11</v>
@@ -1488,16 +1628,13 @@
       <c r="S12" s="4">
         <v>6069.99</v>
       </c>
-      <c r="T12" s="4">
-        <v>20217.18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3">
         <v>7450.0079999999998</v>
@@ -1506,60 +1643,57 @@
         <v>0.79</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13" s="1">
         <v>-151.5</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N13" s="1">
         <v>-879.07</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R13" s="4">
         <v>-1261.77</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T13" s="4">
-        <v>-2292.34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="3">
         <v>7450.0039999999999</v>
@@ -1568,13 +1702,13 @@
         <v>0.78416187000000004</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H14" s="4">
         <v>-3305.18</v>
@@ -1612,16 +1746,13 @@
       <c r="S14" s="4">
         <v>21741.06</v>
       </c>
-      <c r="T14" s="4">
-        <v>-31086.07</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="3">
         <v>7450.0060000000003</v>
@@ -1630,60 +1761,57 @@
         <v>0.77885762999999997</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="3">
         <v>9555.0049999999992</v>
@@ -1692,13 +1820,13 @@
         <v>0.75</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H16" s="4">
         <v>-3120.23</v>
@@ -1736,16 +1864,13 @@
       <c r="S16" s="4">
         <v>-6871.61</v>
       </c>
-      <c r="T16" s="4">
-        <v>-2113.16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="3">
         <v>9555.0010000000002</v>
@@ -1754,13 +1879,13 @@
         <v>0.75</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H17" s="4">
         <v>10947.87</v>
@@ -1798,16 +1923,13 @@
       <c r="S17" s="4">
         <v>20018.93</v>
       </c>
-      <c r="T17" s="4">
-        <v>134023.87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="3">
         <v>9555.0020000000004</v>
@@ -1816,13 +1938,13 @@
         <v>0.76388873000000002</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H18" s="4">
         <v>-1267.75</v>
@@ -1860,16 +1982,13 @@
       <c r="S18" s="4">
         <v>2249.25</v>
       </c>
-      <c r="T18" s="4">
-        <v>-38630.589999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3">
         <v>9555.0040000000008</v>
@@ -1878,13 +1997,13 @@
         <v>0.75</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H19" s="1">
         <v>193.46</v>
@@ -1922,16 +2041,13 @@
       <c r="S19" s="4">
         <v>1604.2</v>
       </c>
-      <c r="T19" s="4">
-        <v>28892.25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3">
         <v>8045.0010000000002</v>
@@ -1940,60 +2056,57 @@
         <v>0.77557668999999996</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3">
         <v>8045.0020000000004</v>
@@ -2002,19 +2115,19 @@
         <v>0.75162499999999999</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J21" s="1">
         <v>-661</v>
@@ -2023,39 +2136,36 @@
         <v>-151.5</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N21" s="1">
         <v>-153.07</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P21" s="1">
         <v>-117.62</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T21" s="4">
-        <v>-1083.19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="3">
         <v>8045.0050000000001</v>
@@ -2064,13 +2174,13 @@
         <v>0.76489015000000005</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H22" s="4">
         <v>20691.060000000001</v>
@@ -2108,16 +2218,13 @@
       <c r="S22" s="4">
         <v>19216.55</v>
       </c>
-      <c r="T22" s="4">
-        <v>394594.14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="3">
         <v>8045.0039999999999</v>
@@ -2126,13 +2233,13 @@
         <v>0.75881279000000001</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H23" s="4">
         <v>52298.63</v>
@@ -2170,16 +2277,13 @@
       <c r="S23" s="4">
         <v>359897.11</v>
       </c>
-      <c r="T23" s="4">
-        <v>1968931.99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="3">
         <v>1825.0029999999999</v>
@@ -2188,13 +2292,13 @@
         <v>0.72901437999999996</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H24" s="1">
         <v>-5.17</v>
@@ -2232,16 +2336,13 @@
       <c r="S24" s="1">
         <v>-7.68</v>
       </c>
-      <c r="T24" s="1">
-        <v>-792.92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="3">
         <v>1825.0050000000001</v>
@@ -2250,13 +2351,13 @@
         <v>0.77911037000000005</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H25" s="4">
         <v>-2417.5500000000002</v>
@@ -2294,16 +2395,13 @@
       <c r="S25" s="4">
         <v>-1113.6300000000001</v>
       </c>
-      <c r="T25" s="4">
-        <v>30012.71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="3">
         <v>1825.0060000000001</v>
@@ -2312,13 +2410,13 @@
         <v>0.78031444999999999</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H26" s="4">
         <v>3735.35</v>
@@ -2356,16 +2454,13 @@
       <c r="S26" s="4">
         <v>-12222.2</v>
       </c>
-      <c r="T26" s="4">
-        <v>48858.73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="3">
         <v>1825.002</v>
@@ -2374,13 +2469,13 @@
         <v>0.78012641000000005</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H27" s="4">
         <v>8242.8799999999992</v>
@@ -2418,16 +2513,13 @@
       <c r="S27" s="4">
         <v>3097.93</v>
       </c>
-      <c r="T27" s="4">
-        <v>93510.81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="3">
         <v>1825.0039999999999</v>
@@ -2436,60 +2528,57 @@
         <v>0.77968687999999997</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R28" s="4">
         <v>-1141.52</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T28" s="4">
-        <v>-1141.52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="3">
         <v>9425.0010000000002</v>
@@ -2498,13 +2587,13 @@
         <v>0.75</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H29" s="4">
         <v>-4317.03</v>
@@ -2542,16 +2631,13 @@
       <c r="S29" s="4">
         <v>-11366.73</v>
       </c>
-      <c r="T29" s="4">
-        <v>-58567.55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="3">
         <v>9125.0010000000002</v>
@@ -2560,13 +2646,13 @@
         <v>0.75299128999999998</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H30" s="4">
         <v>-17460.75</v>
@@ -2604,16 +2690,13 @@
       <c r="S30" s="4">
         <v>59287.31</v>
       </c>
-      <c r="T30" s="4">
-        <v>1221986.3400000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="3">
         <v>9450.0030000000006</v>
@@ -2622,13 +2705,13 @@
         <v>0.77160578000000002</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H31" s="4">
         <v>-26732.02</v>
@@ -2666,16 +2749,13 @@
       <c r="S31" s="4">
         <v>13730.07</v>
       </c>
-      <c r="T31" s="4">
-        <v>-67193.63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="3">
         <v>9450.009</v>
@@ -2684,13 +2764,13 @@
         <v>0.76859964000000003</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H32" s="4">
         <v>-13225.7</v>
@@ -2728,16 +2808,13 @@
       <c r="S32" s="4">
         <v>8578.64</v>
       </c>
-      <c r="T32" s="4">
-        <v>-116742.02</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="3">
         <v>9450.0010000000002</v>
@@ -2746,13 +2823,13 @@
         <v>0.76040004999999999</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H33" s="4">
         <v>3866.89</v>
@@ -2790,16 +2867,13 @@
       <c r="S33" s="4">
         <v>-8838.89</v>
       </c>
-      <c r="T33" s="4">
-        <v>31780.01</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" s="3">
         <v>9450.0059999999994</v>
@@ -2808,13 +2882,13 @@
         <v>0.75</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H34" s="4">
         <v>3067.61</v>
@@ -2852,16 +2926,13 @@
       <c r="S34" s="4">
         <v>4044.7</v>
       </c>
-      <c r="T34" s="4">
-        <v>202978.32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="3">
         <v>9450.0120000000006</v>
@@ -2870,60 +2941,57 @@
         <v>0.75</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T35" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" s="3">
         <v>9450.0020000000004</v>
@@ -2932,13 +3000,13 @@
         <v>0.753</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H36" s="4">
         <v>-1101.2</v>
@@ -2976,16 +3044,13 @@
       <c r="S36" s="4">
         <v>-23120.78</v>
       </c>
-      <c r="T36" s="4">
-        <v>-44503.49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37" s="3">
         <v>9450.0079999999998</v>
@@ -2994,13 +3059,13 @@
         <v>0.75</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H37" s="4">
         <v>10145.620000000001</v>
@@ -3038,16 +3103,13 @@
       <c r="S37" s="4">
         <v>16228.47</v>
       </c>
-      <c r="T37" s="4">
-        <v>148971.69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" s="3">
         <v>9450.0110000000004</v>
@@ -3056,13 +3118,13 @@
         <v>0.78733335999999998</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H38" s="4">
         <v>1520.82</v>
@@ -3100,16 +3162,13 @@
       <c r="S38" s="4">
         <v>-5771.67</v>
       </c>
-      <c r="T38" s="4">
-        <v>61113.04</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" s="3">
         <v>9455.0079999999998</v>
@@ -3118,13 +3177,13 @@
         <v>0.77000500000000005</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H39" s="4">
         <v>13813.37</v>
@@ -3162,16 +3221,13 @@
       <c r="S39" s="4">
         <v>27710.71</v>
       </c>
-      <c r="T39" s="4">
-        <v>360188.01</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" s="3">
         <v>9455.0030000000006</v>
@@ -3180,13 +3236,13 @@
         <v>0.75</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H40" s="4">
         <v>22323.84</v>
@@ -3224,16 +3280,13 @@
       <c r="S40" s="4">
         <v>34258.730000000003</v>
       </c>
-      <c r="T40" s="4">
-        <v>418504.28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" s="3">
         <v>9455.0110000000004</v>
@@ -3242,13 +3295,13 @@
         <v>0.75</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H41" s="4">
         <v>-3267.97</v>
@@ -3286,16 +3339,13 @@
       <c r="S41" s="4">
         <v>10814.62</v>
       </c>
-      <c r="T41" s="4">
-        <v>271282.18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42" s="3">
         <v>9455.0049999999992</v>
@@ -3304,13 +3354,13 @@
         <v>0.75599229000000001</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H42" s="4">
         <v>12600.44</v>
@@ -3348,16 +3398,13 @@
       <c r="S42" s="4">
         <v>8558.31</v>
       </c>
-      <c r="T42" s="4">
-        <v>255099.73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C43" s="3">
         <v>9455.0069999999996</v>
@@ -3366,13 +3413,13 @@
         <v>0.76249741999999998</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H43" s="4">
         <v>2607.81</v>
@@ -3410,16 +3457,13 @@
       <c r="S43" s="4">
         <v>11407.41</v>
       </c>
-      <c r="T43" s="4">
-        <v>91734.29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C44" s="3">
         <v>9455.009</v>
@@ -3428,13 +3472,13 @@
         <v>0.75</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H44" s="4">
         <v>15194.71</v>
@@ -3472,16 +3516,13 @@
       <c r="S44" s="4">
         <v>20291.64</v>
       </c>
-      <c r="T44" s="4">
-        <v>59370.43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C45" s="3">
         <v>9455.0020000000004</v>
@@ -3490,13 +3531,13 @@
         <v>0.75</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H45" s="4">
         <v>37644.94</v>
@@ -3534,16 +3575,13 @@
       <c r="S45" s="4">
         <v>-11742.45</v>
       </c>
-      <c r="T45" s="4">
-        <v>325199.84999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C46" s="3">
         <v>9455.0010000000002</v>
@@ -3552,13 +3590,13 @@
         <v>0.75</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H46" s="4">
         <v>-27673.68</v>
@@ -3596,16 +3634,13 @@
       <c r="S46" s="4">
         <v>50302.75</v>
       </c>
-      <c r="T46" s="4">
-        <v>380598.86</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C47" s="3">
         <v>9455.0139999999992</v>
@@ -3614,13 +3649,13 @@
         <v>0.77225462</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H47" s="4">
         <v>1803.5</v>
@@ -3658,16 +3693,13 @@
       <c r="S47" s="4">
         <v>-12925.83</v>
       </c>
-      <c r="T47" s="4">
-        <v>-3208.35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C48" s="3">
         <v>9455.0120000000006</v>
@@ -3676,13 +3708,13 @@
         <v>0.75</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H48" s="4">
         <v>-6863.08</v>
@@ -3720,16 +3752,13 @@
       <c r="S48" s="4">
         <v>9425.93</v>
       </c>
-      <c r="T48" s="4">
-        <v>73977.100000000006</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C49" s="3">
         <v>9455.0130000000008</v>
@@ -3738,13 +3767,13 @@
         <v>0.75</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H49" s="4">
         <v>18045.77</v>
@@ -3782,16 +3811,13 @@
       <c r="S49" s="4">
         <v>8761.43</v>
       </c>
-      <c r="T49" s="4">
-        <v>153175.67999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C50" s="3">
         <v>9455.0040000000008</v>
@@ -3800,13 +3826,13 @@
         <v>0.75</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H50" s="4">
         <v>10388.83</v>
@@ -3844,16 +3870,13 @@
       <c r="S50" s="4">
         <v>39214.160000000003</v>
       </c>
-      <c r="T50" s="4">
-        <v>314276.53999999998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C51" s="3">
         <v>7125.0020000000004</v>
@@ -3862,13 +3885,13 @@
         <v>0.78075689000000004</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H51" s="4">
         <v>-1859.84</v>
@@ -3906,16 +3929,13 @@
       <c r="S51" s="4">
         <v>-7242.61</v>
       </c>
-      <c r="T51" s="4">
-        <v>43843.02</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C52" s="3">
         <v>8350.0010000000002</v>
@@ -3924,13 +3944,13 @@
         <v>0.72415375000000004</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H52" s="4">
         <v>3679.89</v>
@@ -3968,16 +3988,13 @@
       <c r="S52" s="4">
         <v>8522.73</v>
       </c>
-      <c r="T52" s="4">
-        <v>71618.490000000005</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C53" s="3">
         <v>8350.0020000000004</v>
@@ -3986,22 +4003,22 @@
         <v>0.72170000000000001</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F53" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G53" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="I53" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K53" s="1">
         <v>-469.75</v>
@@ -4013,13 +4030,13 @@
         <v>-127.4</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O53" s="1">
         <v>-383.33</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q53" s="1">
         <v>-400.49</v>
@@ -4030,16 +4047,13 @@
       <c r="S53" s="1">
         <v>-200</v>
       </c>
-      <c r="T53" s="4">
-        <v>-17425.09</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C54" s="3">
         <v>8350.009</v>
@@ -4048,13 +4062,13 @@
         <v>0.72170000000000001</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H54" s="4">
         <v>-2825.68</v>
@@ -4092,16 +4106,13 @@
       <c r="S54" s="4">
         <v>-4489.12</v>
       </c>
-      <c r="T54" s="4">
-        <v>-28042.93</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C55" s="3">
         <v>8350.0049999999992</v>
@@ -4110,60 +4121,57 @@
         <v>0.75631417000000001</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R55" s="1">
         <v>-644.07000000000005</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T55" s="1">
-        <v>-644.07000000000005</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C56" s="3">
         <v>8350.01</v>
@@ -4172,13 +4180,13 @@
         <v>0.75</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H56" s="4">
         <v>-6187.21</v>
@@ -4216,16 +4224,13 @@
       <c r="S56" s="4">
         <v>10358.219999999999</v>
       </c>
-      <c r="T56" s="4">
-        <v>1459.79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C57" s="3">
         <v>8350.0030000000006</v>
@@ -4234,13 +4239,13 @@
         <v>0.74670000000000003</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H57" s="4">
         <v>-10299.33</v>
@@ -4278,16 +4283,13 @@
       <c r="S57" s="4">
         <v>5389.91</v>
       </c>
-      <c r="T57" s="4">
-        <v>-41500.519999999997</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C58" s="3">
         <v>8350.0059999999994</v>
@@ -4296,13 +4298,13 @@
         <v>0.77367419000000004</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H58" s="4">
         <v>-5553.33</v>
@@ -4340,16 +4342,13 @@
       <c r="S58" s="4">
         <v>-3366.71</v>
       </c>
-      <c r="T58" s="4">
-        <v>8869.2800000000007</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C59" s="3">
         <v>5825.0010000000002</v>
@@ -4358,60 +4357,57 @@
         <v>0.75</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T59" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C60" s="3">
         <v>5825.0020000000004</v>
@@ -4420,13 +4416,13 @@
         <v>0.75</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H60" s="4">
         <v>8608.89</v>
@@ -4464,16 +4460,13 @@
       <c r="S60" s="4">
         <v>-6022.55</v>
       </c>
-      <c r="T60" s="4">
-        <v>-21539.78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C61" s="3">
         <v>4035.0070000000001</v>
@@ -4482,13 +4475,13 @@
         <v>0.75</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H61" s="4">
         <v>88156.94</v>
@@ -4526,16 +4519,13 @@
       <c r="S61" s="4">
         <v>54949.55</v>
       </c>
-      <c r="T61" s="4">
-        <v>1334101.01</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C62" s="3">
         <v>4035.0039999999999</v>
@@ -4544,13 +4534,13 @@
         <v>0.77500000000000002</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H62" s="4">
         <v>3013.67</v>
@@ -4588,16 +4578,13 @@
       <c r="S62" s="4">
         <v>4979.8</v>
       </c>
-      <c r="T62" s="4">
-        <v>17699.18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C63" s="3">
         <v>4035.0059999999999</v>
@@ -4606,13 +4593,13 @@
         <v>0.75935512999999999</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H63" s="4">
         <v>16593.830000000002</v>
@@ -4650,16 +4637,13 @@
       <c r="S63" s="4">
         <v>-4779.17</v>
       </c>
-      <c r="T63" s="4">
-        <v>105272.12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C64" s="3">
         <v>4035.0030000000002</v>
@@ -4668,13 +4652,13 @@
         <v>0.75</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H64" s="4">
         <v>-1963.38</v>
@@ -4712,16 +4696,13 @@
       <c r="S64" s="4">
         <v>-3103.51</v>
       </c>
-      <c r="T64" s="4">
-        <v>30179.29</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="3">
         <v>4035.0050000000001</v>
@@ -4730,13 +4711,13 @@
         <v>0.75948550999999997</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H65" s="4">
         <v>105182.81</v>
@@ -4774,16 +4755,13 @@
       <c r="S65" s="4">
         <v>76172.12</v>
       </c>
-      <c r="T65" s="4">
-        <v>1112036.68</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C66" s="3">
         <v>3855.0140000000001</v>
@@ -4792,13 +4770,13 @@
         <v>0.75062070000000003</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H66" s="4">
         <v>-18511.830000000002</v>
@@ -4836,16 +4814,13 @@
       <c r="S66" s="1">
         <v>-200</v>
       </c>
-      <c r="T66" s="4">
-        <v>-47678.23</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C67" s="3">
         <v>3855.0120000000002</v>
@@ -4854,13 +4829,13 @@
         <v>0.75</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H67" s="4">
         <v>10091.09</v>
@@ -4898,16 +4873,13 @@
       <c r="S67" s="4">
         <v>-26831.52</v>
       </c>
-      <c r="T67" s="4">
-        <v>173220.15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C68" s="3">
         <v>3855.002</v>
@@ -4916,13 +4888,13 @@
         <v>0.75</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H68" s="4">
         <v>-10197.799999999999</v>
@@ -4960,16 +4932,13 @@
       <c r="S68" s="4">
         <v>36216.43</v>
       </c>
-      <c r="T68" s="4">
-        <v>568993.09</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C69" s="3">
         <v>3855.0160000000001</v>
@@ -4978,13 +4947,13 @@
         <v>0.75603909000000002</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H69" s="4">
         <v>87578.46</v>
@@ -5022,16 +4991,13 @@
       <c r="S69" s="4">
         <v>51778.11</v>
       </c>
-      <c r="T69" s="4">
-        <v>2083684.23</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C70" s="3">
         <v>3855.0030000000002</v>
@@ -5040,13 +5006,13 @@
         <v>0.75</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H70" s="4">
         <v>-4765.38</v>
@@ -5084,16 +5050,13 @@
       <c r="S70" s="4">
         <v>-5210.0200000000004</v>
       </c>
-      <c r="T70" s="4">
-        <v>-39368.74</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C71" s="3">
         <v>3855.0149999999999</v>
@@ -5102,13 +5065,13 @@
         <v>0.75603909000000002</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H71" s="4">
         <v>-64546.77</v>
@@ -5146,16 +5109,13 @@
       <c r="S71" s="4">
         <v>-3195.4</v>
       </c>
-      <c r="T71" s="4">
-        <v>233839.91</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C72" s="3">
         <v>3855.0219999999999</v>
@@ -5164,13 +5124,13 @@
         <v>0.75603909000000002</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H72" s="4">
         <v>-3936.16</v>
@@ -5208,16 +5168,13 @@
       <c r="S72" s="4">
         <v>26131.439999999999</v>
       </c>
-      <c r="T72" s="4">
-        <v>146034.22</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C73" s="3">
         <v>3855.0169999999998</v>
@@ -5226,13 +5183,13 @@
         <v>0.76060981999999999</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H73" s="4">
         <v>152638.60999999999</v>
@@ -5270,16 +5227,13 @@
       <c r="S73" s="4">
         <v>109779.29</v>
       </c>
-      <c r="T73" s="4">
-        <v>1737548.21</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C74" s="3">
         <v>3855.0070000000001</v>
@@ -5288,13 +5242,13 @@
         <v>0.75421948999999999</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H74" s="4">
         <v>-2539.08</v>
@@ -5332,16 +5286,13 @@
       <c r="S74" s="4">
         <v>3678.3</v>
       </c>
-      <c r="T74" s="4">
-        <v>37297.85</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C75" s="3">
         <v>3855.0059999999999</v>
@@ -5350,13 +5301,13 @@
         <v>0.75102627</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H75" s="4">
         <v>-3190.3</v>
@@ -5394,16 +5345,13 @@
       <c r="S75" s="4">
         <v>-11606.63</v>
       </c>
-      <c r="T75" s="4">
-        <v>-94243.68</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C76" s="3">
         <v>3855.011</v>
@@ -5412,13 +5360,13 @@
         <v>0.75475729999999996</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H76" s="4">
         <v>341949.42</v>
@@ -5456,16 +5404,13 @@
       <c r="S76" s="4">
         <v>22168.49</v>
       </c>
-      <c r="T76" s="4">
-        <v>2984832.81</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C77" s="3">
         <v>3855.0010000000002</v>
@@ -5474,13 +5419,13 @@
         <v>0.75</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H77" s="4">
         <v>2809.35</v>
@@ -5518,16 +5463,13 @@
       <c r="S77" s="4">
         <v>13341.71</v>
       </c>
-      <c r="T77" s="4">
-        <v>121846.13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C78" s="3">
         <v>3855.0039999999999</v>
@@ -5536,13 +5478,13 @@
         <v>0.75475731999999995</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H78" s="4">
         <v>-10683.71</v>
@@ -5580,16 +5522,13 @@
       <c r="S78" s="4">
         <v>-11081.67</v>
       </c>
-      <c r="T78" s="4">
-        <v>37182.910000000003</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C79" s="3">
         <v>3855.01</v>
@@ -5598,13 +5537,13 @@
         <v>0.75</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H79" s="4">
         <v>-3126.34</v>
@@ -5642,16 +5581,13 @@
       <c r="S79" s="1">
         <v>-50.11</v>
       </c>
-      <c r="T79" s="4">
-        <v>-34872.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C80" s="3">
         <v>3855.0079999999998</v>
@@ -5660,13 +5596,13 @@
         <v>0.77198166999999995</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H80" s="4">
         <v>6815.03</v>
@@ -5704,9 +5640,2464 @@
       <c r="S80" s="4">
         <v>-2563.98</v>
       </c>
-      <c r="T80" s="4">
-        <v>-26527.37</v>
-      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C81" s="3">
+        <v>3855.0129999999999</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0.76597656000000003</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H81" s="1">
+        <v>-894.47</v>
+      </c>
+      <c r="I81" s="4">
+        <v>-5994.08</v>
+      </c>
+      <c r="J81" s="4">
+        <v>-27871.09</v>
+      </c>
+      <c r="K81" s="1">
+        <v>-276.70999999999998</v>
+      </c>
+      <c r="L81" s="4">
+        <v>1127.49</v>
+      </c>
+      <c r="M81" s="4">
+        <v>1815.72</v>
+      </c>
+      <c r="N81" s="4">
+        <v>-8434.99</v>
+      </c>
+      <c r="O81" s="4">
+        <v>9007.52</v>
+      </c>
+      <c r="P81" s="4">
+        <v>5101.58</v>
+      </c>
+      <c r="Q81" s="4">
+        <v>-5746.58</v>
+      </c>
+      <c r="R81" s="4">
+        <v>-8708.48</v>
+      </c>
+      <c r="S81" s="4">
+        <v>6473.96</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C82" s="3">
+        <v>3850.0010000000002</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0.80003332999999999</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H82" s="4">
+        <v>-75477.52</v>
+      </c>
+      <c r="I82" s="4">
+        <v>-54891.89</v>
+      </c>
+      <c r="J82" s="4">
+        <v>-6689.44</v>
+      </c>
+      <c r="K82" s="4">
+        <v>61731.57</v>
+      </c>
+      <c r="L82" s="4">
+        <v>40395.68</v>
+      </c>
+      <c r="M82" s="4">
+        <v>15762.56</v>
+      </c>
+      <c r="N82" s="4">
+        <v>49875.519999999997</v>
+      </c>
+      <c r="O82" s="4">
+        <v>18493.919999999998</v>
+      </c>
+      <c r="P82" s="4">
+        <v>25429.15</v>
+      </c>
+      <c r="Q82" s="4">
+        <v>63988.56</v>
+      </c>
+      <c r="R82" s="4">
+        <v>40141.08</v>
+      </c>
+      <c r="S82" s="4">
+        <v>36167.32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C83" s="3">
+        <v>3850.0239999999999</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0.74512756000000002</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H83" s="4">
+        <v>-2159.75</v>
+      </c>
+      <c r="I83" s="1">
+        <v>-418.14</v>
+      </c>
+      <c r="J83" s="4">
+        <v>4132.59</v>
+      </c>
+      <c r="K83" s="4">
+        <v>-2786.56</v>
+      </c>
+      <c r="L83" s="4">
+        <v>-1798</v>
+      </c>
+      <c r="M83" s="4">
+        <v>-1806.65</v>
+      </c>
+      <c r="N83" s="4">
+        <v>-2713.5</v>
+      </c>
+      <c r="O83" s="4">
+        <v>-2555.34</v>
+      </c>
+      <c r="P83" s="4">
+        <v>14327.6</v>
+      </c>
+      <c r="Q83" s="4">
+        <v>-2430.56</v>
+      </c>
+      <c r="R83" s="4">
+        <v>-2133.66</v>
+      </c>
+      <c r="S83" s="4">
+        <v>-2152.23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C84" s="3">
+        <v>3850.0259999999998</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0.76594945999999997</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H84" s="4">
+        <v>11700.93</v>
+      </c>
+      <c r="I84" s="4">
+        <v>1102.5</v>
+      </c>
+      <c r="J84" s="1">
+        <v>8.06</v>
+      </c>
+      <c r="K84" s="4">
+        <v>1255.1199999999999</v>
+      </c>
+      <c r="L84" s="4">
+        <v>12906.15</v>
+      </c>
+      <c r="M84" s="4">
+        <v>5794.96</v>
+      </c>
+      <c r="N84" s="4">
+        <v>-3628.39</v>
+      </c>
+      <c r="O84" s="4">
+        <v>13716.19</v>
+      </c>
+      <c r="P84" s="4">
+        <v>15220.93</v>
+      </c>
+      <c r="Q84" s="4">
+        <v>3899.41</v>
+      </c>
+      <c r="R84" s="4">
+        <v>5341.22</v>
+      </c>
+      <c r="S84" s="4">
+        <v>5940.8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C85" s="3">
+        <v>3850.02</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0.76444833000000001</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H85" s="1">
+        <v>-60</v>
+      </c>
+      <c r="I85" s="1">
+        <v>-60</v>
+      </c>
+      <c r="J85" s="4">
+        <v>-9307.9599999999991</v>
+      </c>
+      <c r="K85" s="1">
+        <v>-509.19</v>
+      </c>
+      <c r="L85" s="1">
+        <v>-60</v>
+      </c>
+      <c r="M85" s="1">
+        <v>-60</v>
+      </c>
+      <c r="N85" s="1">
+        <v>-60</v>
+      </c>
+      <c r="O85" s="1">
+        <v>-60</v>
+      </c>
+      <c r="P85" s="1">
+        <v>-60</v>
+      </c>
+      <c r="Q85" s="1">
+        <v>-629</v>
+      </c>
+      <c r="R85" s="4">
+        <v>-3973.41</v>
+      </c>
+      <c r="S85" s="1">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C86" s="3">
+        <v>3850.011</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0.7629494</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H86" s="4">
+        <v>8811.02</v>
+      </c>
+      <c r="I86" s="4">
+        <v>1789.1</v>
+      </c>
+      <c r="J86" s="4">
+        <v>11852.65</v>
+      </c>
+      <c r="K86" s="4">
+        <v>1952.08</v>
+      </c>
+      <c r="L86" s="1">
+        <v>816.28</v>
+      </c>
+      <c r="M86" s="4">
+        <v>-6365.63</v>
+      </c>
+      <c r="N86" s="4">
+        <v>-4128.2700000000004</v>
+      </c>
+      <c r="O86" s="4">
+        <v>3479.6</v>
+      </c>
+      <c r="P86" s="4">
+        <v>10666.15</v>
+      </c>
+      <c r="Q86" s="4">
+        <v>-98245</v>
+      </c>
+      <c r="R86" s="4">
+        <v>9399.4599999999991</v>
+      </c>
+      <c r="S86" s="4">
+        <v>16919.22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C87" s="3">
+        <v>3850.0079999999998</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0.72670000000000001</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H87" s="1">
+        <v>-131.82</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J87" s="4">
+        <v>12339.44</v>
+      </c>
+      <c r="K87" s="4">
+        <v>-3940.5</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N87" s="1">
+        <v>-153.08000000000001</v>
+      </c>
+      <c r="O87" s="4">
+        <v>-2405</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q87" s="1">
+        <v>-226.69</v>
+      </c>
+      <c r="R87" s="4">
+        <v>-10021.299999999999</v>
+      </c>
+      <c r="S87" s="1">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C88" s="3">
+        <v>3855.009</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0.74952962999999995</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H88" s="4">
+        <v>1578.95</v>
+      </c>
+      <c r="I88" s="4">
+        <v>-1551.79</v>
+      </c>
+      <c r="J88" s="4">
+        <v>-5116.93</v>
+      </c>
+      <c r="K88" s="4">
+        <v>-2686.92</v>
+      </c>
+      <c r="L88" s="4">
+        <v>-5619.19</v>
+      </c>
+      <c r="M88" s="4">
+        <v>-1970.78</v>
+      </c>
+      <c r="N88" s="4">
+        <v>-9943.98</v>
+      </c>
+      <c r="O88" s="4">
+        <v>-11036.82</v>
+      </c>
+      <c r="P88" s="4">
+        <v>-8972.1200000000008</v>
+      </c>
+      <c r="Q88" s="4">
+        <v>-10860.28</v>
+      </c>
+      <c r="R88" s="4">
+        <v>-15236.78</v>
+      </c>
+      <c r="S88" s="4">
+        <v>-7125.69</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C89" s="3">
+        <v>3850.0189999999998</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0.77579346999999999</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R89" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S89" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C90" s="3">
+        <v>3850.0219999999999</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0.78733335999999998</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K90" s="4">
+        <v>-8538.2999999999993</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S90" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C91" s="3">
+        <v>3850.0030000000002</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0.77920233999999999</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H91" s="4">
+        <v>-1813.73</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J91" s="4">
+        <v>-10186.969999999999</v>
+      </c>
+      <c r="K91" s="4">
+        <v>-2621.3200000000002</v>
+      </c>
+      <c r="L91" s="1">
+        <v>-150</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N91" s="1">
+        <v>-775.07</v>
+      </c>
+      <c r="O91" s="1">
+        <v>-60</v>
+      </c>
+      <c r="P91" s="4">
+        <v>-7667.38</v>
+      </c>
+      <c r="Q91" s="4">
+        <v>-2537</v>
+      </c>
+      <c r="R91" s="4">
+        <v>-2711.47</v>
+      </c>
+      <c r="S91" s="1">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C92" s="3">
+        <v>3850.0050000000001</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0.74512940999999999</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H92" s="1">
+        <v>455.18</v>
+      </c>
+      <c r="I92" s="4">
+        <v>2518.37</v>
+      </c>
+      <c r="J92" s="4">
+        <v>7110.73</v>
+      </c>
+      <c r="K92" s="4">
+        <v>-21172.46</v>
+      </c>
+      <c r="L92" s="4">
+        <v>15496.86</v>
+      </c>
+      <c r="M92" s="4">
+        <v>9415.44</v>
+      </c>
+      <c r="N92" s="4">
+        <v>2042.36</v>
+      </c>
+      <c r="O92" s="1">
+        <v>536.4</v>
+      </c>
+      <c r="P92" s="4">
+        <v>1862.26</v>
+      </c>
+      <c r="Q92" s="4">
+        <v>12504.52</v>
+      </c>
+      <c r="R92" s="4">
+        <v>8176.86</v>
+      </c>
+      <c r="S92" s="4">
+        <v>4581.45</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C93" s="3">
+        <v>3850.0120000000002</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0.74985020000000002</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H93" s="4">
+        <v>-2181.5700000000002</v>
+      </c>
+      <c r="I93" s="1">
+        <v>-378.58</v>
+      </c>
+      <c r="J93" s="4">
+        <v>11750.37</v>
+      </c>
+      <c r="K93" s="4">
+        <v>-2940.11</v>
+      </c>
+      <c r="L93" s="1">
+        <v>-727.05</v>
+      </c>
+      <c r="M93" s="4">
+        <v>5824.33</v>
+      </c>
+      <c r="N93" s="4">
+        <v>-4312.47</v>
+      </c>
+      <c r="O93" s="4">
+        <v>-1246.04</v>
+      </c>
+      <c r="P93" s="4">
+        <v>5030.99</v>
+      </c>
+      <c r="Q93" s="4">
+        <v>6653.46</v>
+      </c>
+      <c r="R93" s="4">
+        <v>-3881.37</v>
+      </c>
+      <c r="S93" s="4">
+        <v>-2029.96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C94" s="3">
+        <v>3850.0059999999999</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0.74133298000000003</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H94" s="4">
+        <v>1812.84</v>
+      </c>
+      <c r="I94" s="4">
+        <v>2318.7600000000002</v>
+      </c>
+      <c r="J94" s="4">
+        <v>3521.05</v>
+      </c>
+      <c r="K94" s="4">
+        <v>8574.02</v>
+      </c>
+      <c r="L94" s="4">
+        <v>5262.27</v>
+      </c>
+      <c r="M94" s="4">
+        <v>3428.33</v>
+      </c>
+      <c r="N94" s="4">
+        <v>4858.08</v>
+      </c>
+      <c r="O94" s="4">
+        <v>10703.43</v>
+      </c>
+      <c r="P94" s="4">
+        <v>6128.98</v>
+      </c>
+      <c r="Q94" s="4">
+        <v>-3968.65</v>
+      </c>
+      <c r="R94" s="4">
+        <v>2058.91</v>
+      </c>
+      <c r="S94" s="1">
+        <v>130.79</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C95" s="3">
+        <v>3850.0160000000001</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0.76444833999999995</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H95" s="4">
+        <v>-2505.84</v>
+      </c>
+      <c r="I95" s="4">
+        <v>6212.55</v>
+      </c>
+      <c r="J95" s="1">
+        <v>-519.89</v>
+      </c>
+      <c r="K95" s="4">
+        <v>-10348.01</v>
+      </c>
+      <c r="L95" s="1">
+        <v>-5.86</v>
+      </c>
+      <c r="M95" s="1">
+        <v>-5.86</v>
+      </c>
+      <c r="N95" s="1">
+        <v>-158.93</v>
+      </c>
+      <c r="O95" s="1">
+        <v>-5.86</v>
+      </c>
+      <c r="P95" s="1">
+        <v>-5.86</v>
+      </c>
+      <c r="Q95" s="1">
+        <v>-253.31</v>
+      </c>
+      <c r="R95" s="4">
+        <v>-1382.86</v>
+      </c>
+      <c r="S95" s="1">
+        <v>-207.74</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C96" s="3">
+        <v>3850.0149999999999</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0.76191149999999996</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H96" s="1">
+        <v>-952.88</v>
+      </c>
+      <c r="I96" s="4">
+        <v>4584.75</v>
+      </c>
+      <c r="J96" s="4">
+        <v>-1866.83</v>
+      </c>
+      <c r="K96" s="4">
+        <v>-1876.31</v>
+      </c>
+      <c r="L96" s="4">
+        <v>-1435.99</v>
+      </c>
+      <c r="M96" s="4">
+        <v>-1787.44</v>
+      </c>
+      <c r="N96" s="4">
+        <v>4275.91</v>
+      </c>
+      <c r="O96" s="4">
+        <v>3850.64</v>
+      </c>
+      <c r="P96" s="4">
+        <v>4730.83</v>
+      </c>
+      <c r="Q96" s="4">
+        <v>-42765.42</v>
+      </c>
+      <c r="R96" s="4">
+        <v>40556.79</v>
+      </c>
+      <c r="S96" s="4">
+        <v>58838.98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C97" s="3">
+        <v>4025.002</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H97" s="4">
+        <v>-3005.28</v>
+      </c>
+      <c r="I97" s="4">
+        <v>-3850</v>
+      </c>
+      <c r="J97" s="4">
+        <v>1945.03</v>
+      </c>
+      <c r="K97" s="1">
+        <v>848.13</v>
+      </c>
+      <c r="L97" s="4">
+        <v>4120.67</v>
+      </c>
+      <c r="M97" s="4">
+        <v>-2028.64</v>
+      </c>
+      <c r="N97" s="4">
+        <v>11989.56</v>
+      </c>
+      <c r="O97" s="4">
+        <v>-3990.72</v>
+      </c>
+      <c r="P97" s="4">
+        <v>4424.5200000000004</v>
+      </c>
+      <c r="Q97" s="4">
+        <v>4539.9799999999996</v>
+      </c>
+      <c r="R97" s="4">
+        <v>-3964.73</v>
+      </c>
+      <c r="S97" s="4">
+        <v>2307.54</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C98" s="3">
+        <v>4025.0039999999999</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H98" s="4">
+        <v>-6056.97</v>
+      </c>
+      <c r="I98" s="4">
+        <v>-4506.71</v>
+      </c>
+      <c r="J98" s="4">
+        <v>5492.54</v>
+      </c>
+      <c r="K98" s="4">
+        <v>-3181.46</v>
+      </c>
+      <c r="L98" s="4">
+        <v>-2748.27</v>
+      </c>
+      <c r="M98" s="4">
+        <v>-5298.16</v>
+      </c>
+      <c r="N98" s="4">
+        <v>-5119.6099999999997</v>
+      </c>
+      <c r="O98" s="4">
+        <v>20624.939999999999</v>
+      </c>
+      <c r="P98" s="4">
+        <v>-4108.8999999999996</v>
+      </c>
+      <c r="Q98" s="4">
+        <v>4758.45</v>
+      </c>
+      <c r="R98" s="4">
+        <v>-5954.43</v>
+      </c>
+      <c r="S98" s="4">
+        <v>-23083.9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C99" s="3">
+        <v>4025.0030000000002</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R99" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S99" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C100" s="3">
+        <v>3925.0010000000002</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0.74837109999999996</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H100" s="4">
+        <v>3145.85</v>
+      </c>
+      <c r="I100" s="1">
+        <v>-572.03</v>
+      </c>
+      <c r="J100" s="4">
+        <v>-6596.07</v>
+      </c>
+      <c r="K100" s="4">
+        <v>-2679.23</v>
+      </c>
+      <c r="L100" s="4">
+        <v>-1588.07</v>
+      </c>
+      <c r="M100" s="4">
+        <v>-4311.22</v>
+      </c>
+      <c r="N100" s="4">
+        <v>-2603.5100000000002</v>
+      </c>
+      <c r="O100" s="4">
+        <v>-3187.41</v>
+      </c>
+      <c r="P100" s="4">
+        <v>-4369.3599999999997</v>
+      </c>
+      <c r="Q100" s="4">
+        <v>4395.01</v>
+      </c>
+      <c r="R100" s="4">
+        <v>-2980.52</v>
+      </c>
+      <c r="S100" s="4">
+        <v>-2759.21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C101" s="3">
+        <v>3855.0050000000001</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0.75096222000000001</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H101" s="4">
+        <v>-7920.03</v>
+      </c>
+      <c r="I101" s="4">
+        <v>10933.23</v>
+      </c>
+      <c r="J101" s="4">
+        <v>9735.77</v>
+      </c>
+      <c r="K101" s="4">
+        <v>-2427</v>
+      </c>
+      <c r="L101" s="4">
+        <v>2810.28</v>
+      </c>
+      <c r="M101" s="1">
+        <v>-110.72</v>
+      </c>
+      <c r="N101" s="4">
+        <v>-7088.79</v>
+      </c>
+      <c r="O101" s="4">
+        <v>-26194.06</v>
+      </c>
+      <c r="P101" s="4">
+        <v>-5525.06</v>
+      </c>
+      <c r="Q101" s="4">
+        <v>-1654.47</v>
+      </c>
+      <c r="R101" s="4">
+        <v>-7528.23</v>
+      </c>
+      <c r="S101" s="4">
+        <v>2158.65</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C102" s="3">
+        <v>3855.0239999999999</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0.75121362000000003</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H102" s="4">
+        <v>182011.55</v>
+      </c>
+      <c r="I102" s="4">
+        <v>171253.55</v>
+      </c>
+      <c r="J102" s="4">
+        <v>179033.65</v>
+      </c>
+      <c r="K102" s="4">
+        <v>142018.94</v>
+      </c>
+      <c r="L102" s="4">
+        <v>128601.07</v>
+      </c>
+      <c r="M102" s="4">
+        <v>87744.21</v>
+      </c>
+      <c r="N102" s="4">
+        <v>144084.20000000001</v>
+      </c>
+      <c r="O102" s="4">
+        <v>148213.32</v>
+      </c>
+      <c r="P102" s="4">
+        <v>81740.52</v>
+      </c>
+      <c r="Q102" s="4">
+        <v>47882.79</v>
+      </c>
+      <c r="R102" s="4">
+        <v>111491.26</v>
+      </c>
+      <c r="S102" s="4">
+        <v>64082.17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C103" s="3">
+        <v>3855.0250000000001</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H103" s="4">
+        <v>-2692.58</v>
+      </c>
+      <c r="I103" s="4">
+        <v>5334.37</v>
+      </c>
+      <c r="J103" s="4">
+        <v>11417.14</v>
+      </c>
+      <c r="K103" s="4">
+        <v>-1541.92</v>
+      </c>
+      <c r="L103" s="4">
+        <v>27709.97</v>
+      </c>
+      <c r="M103" s="4">
+        <v>51137.35</v>
+      </c>
+      <c r="N103" s="4">
+        <v>16259.97</v>
+      </c>
+      <c r="O103" s="4">
+        <v>45230.07</v>
+      </c>
+      <c r="P103" s="4">
+        <v>51691.39</v>
+      </c>
+      <c r="Q103" s="4">
+        <v>23809.05</v>
+      </c>
+      <c r="R103" s="4">
+        <v>36125.19</v>
+      </c>
+      <c r="S103" s="4">
+        <v>31720.69</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C104" s="3">
+        <v>9430.0020000000004</v>
+      </c>
+      <c r="D104" s="1">
+        <v>0.73129241</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H104" s="4">
+        <v>81564.899999999994</v>
+      </c>
+      <c r="I104" s="4">
+        <v>71542.259999999995</v>
+      </c>
+      <c r="J104" s="4">
+        <v>46596.33</v>
+      </c>
+      <c r="K104" s="4">
+        <v>26036.15</v>
+      </c>
+      <c r="L104" s="4">
+        <v>25788.49</v>
+      </c>
+      <c r="M104" s="4">
+        <v>3927.05</v>
+      </c>
+      <c r="N104" s="4">
+        <v>28310.91</v>
+      </c>
+      <c r="O104" s="4">
+        <v>21516.76</v>
+      </c>
+      <c r="P104" s="4">
+        <v>-38442.339999999997</v>
+      </c>
+      <c r="Q104" s="4">
+        <v>-2074.4699999999998</v>
+      </c>
+      <c r="R104" s="4">
+        <v>38228.699999999997</v>
+      </c>
+      <c r="S104" s="4">
+        <v>21596.99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C105" s="3">
+        <v>9430.0030000000006</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0.73129241</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H105" s="4">
+        <v>94309.3</v>
+      </c>
+      <c r="I105" s="4">
+        <v>131079.20000000001</v>
+      </c>
+      <c r="J105" s="4">
+        <v>29572.97</v>
+      </c>
+      <c r="K105" s="1">
+        <v>-66.87</v>
+      </c>
+      <c r="L105" s="4">
+        <v>43308.81</v>
+      </c>
+      <c r="M105" s="4">
+        <v>32688.44</v>
+      </c>
+      <c r="N105" s="4">
+        <v>38357.480000000003</v>
+      </c>
+      <c r="O105" s="4">
+        <v>63820.57</v>
+      </c>
+      <c r="P105" s="4">
+        <v>36442.43</v>
+      </c>
+      <c r="Q105" s="4">
+        <v>66738.69</v>
+      </c>
+      <c r="R105" s="4">
+        <v>-17285.07</v>
+      </c>
+      <c r="S105" s="4">
+        <v>57074.47</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C106" s="3">
+        <v>9430.0049999999992</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0.73129241</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H106" s="4">
+        <v>-23336.27</v>
+      </c>
+      <c r="I106" s="4">
+        <v>-80917.899999999994</v>
+      </c>
+      <c r="J106" s="4">
+        <v>4236.93</v>
+      </c>
+      <c r="K106" s="4">
+        <v>13860.96</v>
+      </c>
+      <c r="L106" s="4">
+        <v>16241.19</v>
+      </c>
+      <c r="M106" s="4">
+        <v>2633.75</v>
+      </c>
+      <c r="N106" s="1">
+        <v>-772.28</v>
+      </c>
+      <c r="O106" s="4">
+        <v>18761.939999999999</v>
+      </c>
+      <c r="P106" s="4">
+        <v>9689.82</v>
+      </c>
+      <c r="Q106" s="1">
+        <v>-955.39</v>
+      </c>
+      <c r="R106" s="4">
+        <v>12716.47</v>
+      </c>
+      <c r="S106" s="4">
+        <v>5018.82</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C107" s="3">
+        <v>9430.0059999999994</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0.73129241</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H107" s="4">
+        <v>-176524.66</v>
+      </c>
+      <c r="I107" s="4">
+        <v>24092.51</v>
+      </c>
+      <c r="J107" s="4">
+        <v>50677.02</v>
+      </c>
+      <c r="K107" s="4">
+        <v>7437.21</v>
+      </c>
+      <c r="L107" s="4">
+        <v>51387.57</v>
+      </c>
+      <c r="M107" s="4">
+        <v>25614.28</v>
+      </c>
+      <c r="N107" s="4">
+        <v>20189.11</v>
+      </c>
+      <c r="O107" s="4">
+        <v>18501.669999999998</v>
+      </c>
+      <c r="P107" s="4">
+        <v>22624.82</v>
+      </c>
+      <c r="Q107" s="4">
+        <v>17576.07</v>
+      </c>
+      <c r="R107" s="4">
+        <v>35551.75</v>
+      </c>
+      <c r="S107" s="4">
+        <v>28441.39</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C108" s="3">
+        <v>9430.0079999999998</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0.73129241</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S108" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C109" s="3">
+        <v>9430.009</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0.73614935999999997</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H109" s="4">
+        <v>-30254.3</v>
+      </c>
+      <c r="I109" s="4">
+        <v>-175880.51</v>
+      </c>
+      <c r="J109" s="4">
+        <v>-15387.4</v>
+      </c>
+      <c r="K109" s="4">
+        <v>-239162.67</v>
+      </c>
+      <c r="L109" s="4">
+        <v>-28796.15</v>
+      </c>
+      <c r="M109" s="4">
+        <v>23927.59</v>
+      </c>
+      <c r="N109" s="4">
+        <v>135445.32999999999</v>
+      </c>
+      <c r="O109" s="4">
+        <v>108595.57</v>
+      </c>
+      <c r="P109" s="4">
+        <v>122379.06</v>
+      </c>
+      <c r="Q109" s="4">
+        <v>63944.27</v>
+      </c>
+      <c r="R109" s="4">
+        <v>103540.76</v>
+      </c>
+      <c r="S109" s="4">
+        <v>49798.62</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C110" s="3">
+        <v>9125.0040000000008</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H110" s="4">
+        <v>-7359.03</v>
+      </c>
+      <c r="I110" s="4">
+        <v>-68045.59</v>
+      </c>
+      <c r="J110" s="4">
+        <v>-59921.53</v>
+      </c>
+      <c r="K110" s="4">
+        <v>-82574.45</v>
+      </c>
+      <c r="L110" s="4">
+        <v>-229490.74</v>
+      </c>
+      <c r="M110" s="4">
+        <v>-107884.02</v>
+      </c>
+      <c r="N110" s="4">
+        <v>-70351.539999999994</v>
+      </c>
+      <c r="O110" s="4">
+        <v>-27523.65</v>
+      </c>
+      <c r="P110" s="4">
+        <v>49424.4</v>
+      </c>
+      <c r="Q110" s="4">
+        <v>-6950.38</v>
+      </c>
+      <c r="R110" s="4">
+        <v>-11566.85</v>
+      </c>
+      <c r="S110" s="4">
+        <v>-9271.84</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C111" s="3">
+        <v>9125.0059999999994</v>
+      </c>
+      <c r="D111" s="1">
+        <v>0.75090000000000001</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J111" s="4">
+        <v>-54238.65</v>
+      </c>
+      <c r="K111" s="4">
+        <v>-35232.1</v>
+      </c>
+      <c r="L111" s="4">
+        <v>-289589.94</v>
+      </c>
+      <c r="M111" s="4">
+        <v>-89927.25</v>
+      </c>
+      <c r="N111" s="4">
+        <v>86546.98</v>
+      </c>
+      <c r="O111" s="4">
+        <v>170454.11</v>
+      </c>
+      <c r="P111" s="4">
+        <v>67975.990000000005</v>
+      </c>
+      <c r="Q111" s="4">
+        <v>94918.67</v>
+      </c>
+      <c r="R111" s="4">
+        <v>71734.080000000002</v>
+      </c>
+      <c r="S111" s="4">
+        <v>71545.8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C112" s="3">
+        <v>9430.0010000000002</v>
+      </c>
+      <c r="D112" s="1">
+        <v>0.73125149</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K112" s="4">
+        <v>-43080.77</v>
+      </c>
+      <c r="L112" s="4">
+        <v>-209797.54</v>
+      </c>
+      <c r="M112" s="4">
+        <v>-36066.36</v>
+      </c>
+      <c r="N112" s="4">
+        <v>230482.5</v>
+      </c>
+      <c r="O112" s="4">
+        <v>173586.05</v>
+      </c>
+      <c r="P112" s="4">
+        <v>102805.99</v>
+      </c>
+      <c r="Q112" s="4">
+        <v>95752.76</v>
+      </c>
+      <c r="R112" s="4">
+        <v>58500.65</v>
+      </c>
+      <c r="S112" s="4">
+        <v>52160.480000000003</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C113" s="3">
+        <v>9430.0040000000008</v>
+      </c>
+      <c r="D113" s="1">
+        <v>0.73125149</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K113" s="4">
+        <v>-5150.2</v>
+      </c>
+      <c r="L113" s="4">
+        <v>-34363.47</v>
+      </c>
+      <c r="M113" s="4">
+        <v>-116522.31</v>
+      </c>
+      <c r="N113" s="4">
+        <v>-301001.03000000003</v>
+      </c>
+      <c r="O113" s="4">
+        <v>17157.68</v>
+      </c>
+      <c r="P113" s="4">
+        <v>12841.82</v>
+      </c>
+      <c r="Q113" s="4">
+        <v>82277.19</v>
+      </c>
+      <c r="R113" s="4">
+        <v>4337.04</v>
+      </c>
+      <c r="S113" s="4">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C114" s="3">
+        <v>9430.0110000000004</v>
+      </c>
+      <c r="D114" s="1"/>
+      <c r="E114" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M114" s="4">
+        <v>-44259.69</v>
+      </c>
+      <c r="N114" s="4">
+        <v>-22163.39</v>
+      </c>
+      <c r="O114" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P114" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q114" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R114" s="4">
+        <v>-6412</v>
+      </c>
+      <c r="S114" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C115" s="3">
+        <v>8045.0060000000003</v>
+      </c>
+      <c r="D115" s="1">
+        <v>0.75951999999999997</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N115" s="4">
+        <v>-50468.03</v>
+      </c>
+      <c r="O115" s="4">
+        <v>-257399.81</v>
+      </c>
+      <c r="P115" s="4">
+        <v>167372.99</v>
+      </c>
+      <c r="Q115" s="4">
+        <v>550949.53</v>
+      </c>
+      <c r="R115" s="4">
+        <v>68961.72</v>
+      </c>
+      <c r="S115" s="4">
+        <v>363999.56</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C116" s="3">
+        <v>8925.0020000000004</v>
+      </c>
+      <c r="D116" s="1">
+        <v>0.76260167999999995</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N116" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O116" s="4">
+        <v>-14072.78</v>
+      </c>
+      <c r="P116" s="4">
+        <v>-65587.47</v>
+      </c>
+      <c r="Q116" s="4">
+        <v>186762.13</v>
+      </c>
+      <c r="R116" s="4">
+        <v>1349217.26</v>
+      </c>
+      <c r="S116" s="4">
+        <v>1356387.57</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C117" s="3">
+        <v>6560.0010000000002</v>
+      </c>
+      <c r="D117" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N117" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O117" s="4">
+        <v>-53762.5</v>
+      </c>
+      <c r="P117" s="4">
+        <v>-6174.61</v>
+      </c>
+      <c r="Q117" s="4">
+        <v>-173645.03</v>
+      </c>
+      <c r="R117" s="4">
+        <v>852809.94</v>
+      </c>
+      <c r="S117" s="4">
+        <v>951100.04</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C118" s="3">
+        <v>8925.0040000000008</v>
+      </c>
+      <c r="D118" s="1">
+        <v>0.75603858999999995</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N118" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O118" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P118" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q118" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R118" s="4">
+        <v>-7989.4</v>
+      </c>
+      <c r="S118" s="4">
+        <v>-252939.06</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C119" s="3">
+        <v>8925.0010000000002</v>
+      </c>
+      <c r="D119" s="1">
+        <v>0.75355771000000005</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N119" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O119" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P119" s="4">
+        <v>-204367.32</v>
+      </c>
+      <c r="Q119" s="1">
+        <v>-88.33</v>
+      </c>
+      <c r="R119" s="4">
+        <v>-8474.4</v>
+      </c>
+      <c r="S119" s="4">
+        <v>-258316.16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A120" s="6">
+        <v>119</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C120" s="7">
+        <v>8925.0030000000006</v>
+      </c>
+      <c r="D120" s="6">
+        <v>3.0290999999999998E-3</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
+      <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A121" s="6">
+        <v>120</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C121" s="7">
+        <v>8925.0049999999992</v>
+      </c>
+      <c r="D121" s="6">
+        <v>2.9954999999999999E-3</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="1"/>
+      <c r="Q121" s="1"/>
+      <c r="R121" s="1"/>
+      <c r="S121" s="1"/>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A122" s="6">
+        <v>121</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C122" s="7">
+        <v>8045.0069999999996</v>
+      </c>
+      <c r="D122" s="6">
+        <v>1.75E-3</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+      <c r="O122" s="1"/>
+      <c r="P122" s="1"/>
+      <c r="Q122" s="1"/>
+      <c r="R122" s="1"/>
+      <c r="S122" s="1"/>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A123" s="6">
+        <v>122</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C123" s="7">
+        <v>8045.0079999999998</v>
+      </c>
+      <c r="D123" s="6"/>
+      <c r="E123" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+      <c r="O123" s="1"/>
+      <c r="P123" s="1"/>
+      <c r="Q123" s="1"/>
+      <c r="R123" s="1"/>
+      <c r="S123" s="1"/>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A124" s="6">
+        <v>123</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C124" s="7">
+        <v>9430.0120000000006</v>
+      </c>
+      <c r="D124" s="6"/>
+      <c r="E124" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+      <c r="O124" s="1"/>
+      <c r="P124" s="1"/>
+      <c r="Q124" s="1"/>
+      <c r="R124" s="1"/>
+      <c r="S124" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
